--- a/output/StructureDefinition-lunar-coordinates.xlsx
+++ b/output/StructureDefinition-lunar-coordinates.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-24T17:35:27-07:00</t>
+    <t>2025-12-24T19:44:53-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-lunar-coordinates.xlsx
+++ b/output/StructureDefinition-lunar-coordinates.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.5</t>
+    <t>0.5.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T10:45:53-07:00</t>
+    <t>2025-12-30T13:15:27-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
